--- a/data/Lakes/LakeHeaton_d2c473879f.xlsx
+++ b/data/Lakes/LakeHeaton_d2c473879f.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">

--- a/data/Lakes/LakeHeaton_d2c473879f.xlsx
+++ b/data/Lakes/LakeHeaton_d2c473879f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="362">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>51.400</t>
   </si>
   <si>
-    <t>0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>0.0034</t>
@@ -91,7 +91,7 @@
     <t>12.400</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>0.0603</t>
@@ -151,7 +151,7 @@
     <t>100.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>3.750</t>
@@ -166,7 +166,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>190</t>
+    <t>190.0</t>
   </si>
   <si>
     <t>0.6800</t>
@@ -205,7 +205,7 @@
     <t>66.000</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>3.840</t>
@@ -217,7 +217,7 @@
     <t>0.1900</t>
   </si>
   <si>
-    <t>1200</t>
+    <t>1200.0</t>
   </si>
   <si>
     <t>0.6820</t>
@@ -247,7 +247,7 @@
     <t>31.000</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>1.140</t>
@@ -301,7 +301,7 @@
     <t>0.3600</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>0.8010</t>
@@ -331,7 +331,7 @@
     <t>17.000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.0190</t>
@@ -364,7 +364,7 @@
     <t>4.800</t>
   </si>
   <si>
-    <t>120</t>
+    <t>120.0</t>
   </si>
   <si>
     <t>7.810</t>
@@ -439,7 +439,7 @@
     <t>9.400</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>8.150</t>
@@ -529,7 +529,7 @@
     <t>33.000</t>
   </si>
   <si>
-    <t>21</t>
+    <t>20.8</t>
   </si>
   <si>
     <t>7.500</t>
@@ -571,6 +571,9 @@
     <t>105.000</t>
   </si>
   <si>
+    <t>16.4</t>
+  </si>
+  <si>
     <t>8.570</t>
   </si>
   <si>
@@ -592,6 +595,9 @@
     <t>108.000</t>
   </si>
   <si>
+    <t>25.2</t>
+  </si>
+  <si>
     <t>7.790</t>
   </si>
   <si>
@@ -610,6 +616,9 @@
     <t>125.000</t>
   </si>
   <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>8.790</t>
   </si>
   <si>
@@ -625,7 +634,7 @@
     <t>0.2790</t>
   </si>
   <si>
-    <t>818</t>
+    <t>818.4</t>
   </si>
   <si>
     <t>7.110</t>
@@ -643,7 +652,7 @@
     <t>0.2460</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.2</t>
   </si>
   <si>
     <t>7.220</t>
@@ -724,7 +733,7 @@
     <t>5.300</t>
   </si>
   <si>
-    <t>494</t>
+    <t>494.4</t>
   </si>
   <si>
     <t>7.450</t>
@@ -832,7 +841,7 @@
     <t>0.2840</t>
   </si>
   <si>
-    <t>1844</t>
+    <t>1844.4</t>
   </si>
   <si>
     <t>8.000</t>
@@ -847,7 +856,7 @@
     <t>0.5060</t>
   </si>
   <si>
-    <t>7945</t>
+    <t>7945.2</t>
   </si>
   <si>
     <t>7.680</t>
@@ -877,7 +886,7 @@
     <t>6.000</t>
   </si>
   <si>
-    <t>29</t>
+    <t>29.2</t>
   </si>
   <si>
     <t>8.120</t>
@@ -904,6 +913,141 @@
     <t>0.1960</t>
   </si>
   <si>
+    <t>0.87970</t>
+  </si>
+  <si>
+    <t>16.000</t>
+  </si>
+  <si>
+    <t>8.710</t>
+  </si>
+  <si>
+    <t>0.9800</t>
+  </si>
+  <si>
+    <t>0.5210</t>
+  </si>
+  <si>
+    <t>29.65840</t>
+  </si>
+  <si>
+    <t>0.0090</t>
+  </si>
+  <si>
+    <t>75.000</t>
+  </si>
+  <si>
+    <t>9.450</t>
+  </si>
+  <si>
+    <t>3.230</t>
+  </si>
+  <si>
+    <t>1.400</t>
+  </si>
+  <si>
+    <t>19.34680</t>
+  </si>
+  <si>
+    <t>90.000</t>
+  </si>
+  <si>
+    <t>9.090</t>
+  </si>
+  <si>
+    <t>1.800</t>
+  </si>
+  <si>
+    <t>1.110</t>
+  </si>
+  <si>
+    <t>1.03860</t>
+  </si>
+  <si>
+    <t>0.1880</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>52.8</t>
+  </si>
+  <si>
+    <t>0.7260</t>
+  </si>
+  <si>
+    <t>0.01020</t>
+  </si>
+  <si>
+    <t>0.4500</t>
+  </si>
+  <si>
+    <t>8.900</t>
+  </si>
+  <si>
+    <t>8.010</t>
+  </si>
+  <si>
+    <t>0.3480</t>
+  </si>
+  <si>
+    <t>1.750</t>
+  </si>
+  <si>
+    <t>0.08900</t>
+  </si>
+  <si>
+    <t>0.00330</t>
+  </si>
+  <si>
+    <t>383.6</t>
+  </si>
+  <si>
+    <t>7.820</t>
+  </si>
+  <si>
+    <t>0.2950</t>
+  </si>
+  <si>
+    <t>0.2260</t>
+  </si>
+  <si>
+    <t>0.00230</t>
+  </si>
+  <si>
+    <t>0.1470</t>
+  </si>
+  <si>
+    <t>2.600</t>
+  </si>
+  <si>
+    <t>8.520</t>
+  </si>
+  <si>
+    <t>0.1600</t>
+  </si>
+  <si>
+    <t>1.470</t>
+  </si>
+  <si>
+    <t>0.2230</t>
+  </si>
+  <si>
+    <t>1.43310</t>
+  </si>
+  <si>
+    <t>32.400</t>
+  </si>
+  <si>
+    <t>8.670</t>
+  </si>
+  <si>
+    <t>2.860</t>
+  </si>
+  <si>
+    <t>0.6330</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -938,6 +1082,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1314,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I364"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1510,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1383,7 +1530,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1403,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1423,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1477,7 +1624,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1497,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1517,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1537,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1591,7 +1738,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1611,7 +1758,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1631,7 +1778,7 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1651,7 +1798,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1705,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1725,7 +1872,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1745,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1765,7 +1912,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1819,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1839,7 +1986,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1859,7 +2006,7 @@
         <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1879,7 +2026,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1933,7 +2080,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1953,7 +2100,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1973,7 +2120,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1993,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -2047,7 +2194,7 @@
         <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -2067,7 +2214,7 @@
         <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -2087,7 +2234,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2107,7 +2254,7 @@
         <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2161,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2181,7 +2328,7 @@
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2201,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2221,7 +2368,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2275,7 +2422,7 @@
         <v>57</v>
       </c>
       <c r="G50" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2295,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2315,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2335,7 +2482,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2389,7 +2536,7 @@
         <v>61</v>
       </c>
       <c r="G56" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2409,7 +2556,7 @@
         <v>62</v>
       </c>
       <c r="G57" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2429,7 +2576,7 @@
         <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2449,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2503,7 +2650,7 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2523,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2543,7 +2690,7 @@
         <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2563,7 +2710,7 @@
         <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2617,7 +2764,7 @@
         <v>71</v>
       </c>
       <c r="G68" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2637,7 +2784,7 @@
         <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2657,7 +2804,7 @@
         <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2677,7 +2824,7 @@
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2731,7 +2878,7 @@
         <v>61</v>
       </c>
       <c r="G74" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2751,7 +2898,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2771,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2791,7 +2938,7 @@
         <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2845,7 +2992,7 @@
         <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2865,7 +3012,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2885,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2905,7 +3052,7 @@
         <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2959,13 +3106,13 @@
         <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F86" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G86" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2985,13 +3132,13 @@
         <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F87" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G87" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3011,13 +3158,13 @@
         <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F88" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G88" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3037,10 +3184,10 @@
         <v>84</v>
       </c>
       <c r="E89" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F89" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3060,10 +3207,10 @@
         <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F90" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3083,13 +3230,13 @@
         <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F91" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G91" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3109,13 +3256,13 @@
         <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F92" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3135,13 +3282,13 @@
         <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F93" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G93" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3161,10 +3308,10 @@
         <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F94" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3184,10 +3331,10 @@
         <v>89</v>
       </c>
       <c r="E95" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3207,13 +3354,13 @@
         <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F96" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G96" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3233,13 +3380,13 @@
         <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F97" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G97" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3259,13 +3406,13 @@
         <v>87</v>
       </c>
       <c r="E98" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F98" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G98" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3285,10 +3432,10 @@
         <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F99" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3308,10 +3455,10 @@
         <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3331,13 +3478,13 @@
         <v>94</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F101" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G101" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3357,13 +3504,13 @@
         <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F102" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G102" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3383,13 +3530,13 @@
         <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F103" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3409,13 +3556,13 @@
         <v>96</v>
       </c>
       <c r="E104" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F104" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3435,10 +3582,10 @@
         <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F105" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3458,10 +3605,10 @@
         <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F106" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3481,13 +3628,13 @@
         <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F107" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G107" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3507,13 +3654,13 @@
         <v>99</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F108" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G108" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3533,13 +3680,13 @@
         <v>63</v>
       </c>
       <c r="E109" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F109" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G109" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3559,13 +3706,13 @@
         <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F110" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G110" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3585,10 +3732,10 @@
         <v>101</v>
       </c>
       <c r="E111" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3608,10 +3755,10 @@
         <v>102</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F112" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3631,13 +3778,13 @@
         <v>103</v>
       </c>
       <c r="E113" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G113" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3657,13 +3804,13 @@
         <v>104</v>
       </c>
       <c r="E114" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F114" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G114" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3683,13 +3830,13 @@
         <v>105</v>
       </c>
       <c r="E115" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F115" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G115" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3709,13 +3856,13 @@
         <v>106</v>
       </c>
       <c r="E116" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F116" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G116" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3735,10 +3882,10 @@
         <v>107</v>
       </c>
       <c r="E117" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F117" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3758,10 +3905,10 @@
         <v>108</v>
       </c>
       <c r="E118" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F118" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3781,7 +3928,7 @@
         <v>109</v>
       </c>
       <c r="G119" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3801,13 +3948,13 @@
         <v>103</v>
       </c>
       <c r="E120" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F120" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G120" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3830,13 +3977,13 @@
         <v>110</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F121" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G121" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H121">
         <v>500</v>
@@ -3859,13 +4006,13 @@
         <v>63</v>
       </c>
       <c r="E122" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F122" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G122" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3888,7 +4035,7 @@
         <v>111</v>
       </c>
       <c r="E123" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -3914,13 +4061,13 @@
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G124" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -3943,10 +4090,10 @@
         <v>72</v>
       </c>
       <c r="E125" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -3969,10 +4116,10 @@
         <v>112</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -3995,7 +4142,7 @@
         <v>113</v>
       </c>
       <c r="G127" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4015,13 +4162,13 @@
         <v>114</v>
       </c>
       <c r="E128" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F128" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G128" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H128">
         <v>500</v>
@@ -4044,13 +4191,13 @@
         <v>115</v>
       </c>
       <c r="E129" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F129" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G129" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4073,13 +4220,13 @@
         <v>116</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F130" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G130" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4102,7 +4249,7 @@
         <v>117</v>
       </c>
       <c r="E131" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4128,13 +4275,13 @@
         <v>118</v>
       </c>
       <c r="E132" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F132" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G132" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4157,10 +4304,10 @@
         <v>119</v>
       </c>
       <c r="E133" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F133" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4183,10 +4330,10 @@
         <v>120</v>
       </c>
       <c r="E134" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F134" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4209,7 +4356,7 @@
         <v>121</v>
       </c>
       <c r="G135" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4229,13 +4376,13 @@
         <v>122</v>
       </c>
       <c r="E136" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F136" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G136" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4255,13 +4402,13 @@
         <v>123</v>
       </c>
       <c r="E137" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F137" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G137" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4281,13 +4428,13 @@
         <v>63</v>
       </c>
       <c r="E138" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F138" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G138" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4307,13 +4454,13 @@
         <v>124</v>
       </c>
       <c r="E139" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F139" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G139" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4333,10 +4480,10 @@
         <v>125</v>
       </c>
       <c r="E140" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F140" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4356,10 +4503,10 @@
         <v>126</v>
       </c>
       <c r="E141" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F141" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4379,7 +4526,7 @@
         <v>127</v>
       </c>
       <c r="G142" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4399,13 +4546,13 @@
         <v>128</v>
       </c>
       <c r="E143" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F143" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G143" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4428,13 +4575,13 @@
         <v>129</v>
       </c>
       <c r="E144" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F144" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G144" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4457,13 +4604,13 @@
         <v>25</v>
       </c>
       <c r="E145" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F145" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G145" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4486,7 +4633,7 @@
         <v>130</v>
       </c>
       <c r="E146" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G146" t="s">
         <v>8</v>
@@ -4512,13 +4659,13 @@
         <v>41</v>
       </c>
       <c r="E147" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F147" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G147" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4541,10 +4688,10 @@
         <v>131</v>
       </c>
       <c r="E148" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F148" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4567,10 +4714,10 @@
         <v>132</v>
       </c>
       <c r="E149" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F149" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4593,7 +4740,7 @@
         <v>133</v>
       </c>
       <c r="G150" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4613,13 +4760,13 @@
         <v>134</v>
       </c>
       <c r="E151" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F151" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G151" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4642,13 +4789,13 @@
         <v>49</v>
       </c>
       <c r="E152" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G152" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4671,13 +4818,13 @@
         <v>95</v>
       </c>
       <c r="E153" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G153" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4700,7 +4847,7 @@
         <v>135</v>
       </c>
       <c r="E154" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -4726,13 +4873,13 @@
         <v>136</v>
       </c>
       <c r="E155" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F155" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G155" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4755,10 +4902,10 @@
         <v>137</v>
       </c>
       <c r="E156" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4781,10 +4928,10 @@
         <v>138</v>
       </c>
       <c r="E157" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F157" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4807,13 +4954,13 @@
         <v>139</v>
       </c>
       <c r="E158" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F158" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G158" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4836,13 +4983,13 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G159" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4865,13 +5012,13 @@
         <v>141</v>
       </c>
       <c r="E160" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G160" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -4894,7 +5041,7 @@
         <v>142</v>
       </c>
       <c r="E161" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G161" t="s">
         <v>8</v>
@@ -4920,13 +5067,13 @@
         <v>143</v>
       </c>
       <c r="E162" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F162" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G162" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -4949,10 +5096,10 @@
         <v>144</v>
       </c>
       <c r="E163" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -4975,10 +5122,10 @@
         <v>145</v>
       </c>
       <c r="E164" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F164" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5001,7 +5148,7 @@
         <v>146</v>
       </c>
       <c r="G165" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5021,13 +5168,13 @@
         <v>124</v>
       </c>
       <c r="E166" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F166" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G166" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5050,13 +5197,13 @@
         <v>147</v>
       </c>
       <c r="E167" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F167" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G167" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5079,13 +5226,13 @@
         <v>63</v>
       </c>
       <c r="E168" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G168" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5108,7 +5255,7 @@
         <v>148</v>
       </c>
       <c r="E169" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G169" t="s">
         <v>8</v>
@@ -5134,13 +5281,13 @@
         <v>41</v>
       </c>
       <c r="E170" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F170" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G170" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5163,10 +5310,10 @@
         <v>149</v>
       </c>
       <c r="E171" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F171" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5189,10 +5336,10 @@
         <v>150</v>
       </c>
       <c r="E172" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F172" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5215,7 +5362,7 @@
         <v>151</v>
       </c>
       <c r="G173" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5235,13 +5382,13 @@
         <v>152</v>
       </c>
       <c r="E174" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F174" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G174" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H174">
         <v>500</v>
@@ -5264,13 +5411,13 @@
         <v>99</v>
       </c>
       <c r="E175" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G175" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5293,13 +5440,13 @@
         <v>77</v>
       </c>
       <c r="E176" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G176" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5322,7 +5469,7 @@
         <v>153</v>
       </c>
       <c r="E177" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
@@ -5348,13 +5495,13 @@
         <v>106</v>
       </c>
       <c r="E178" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G178" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5377,10 +5524,10 @@
         <v>154</v>
       </c>
       <c r="E179" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5403,10 +5550,10 @@
         <v>155</v>
       </c>
       <c r="E180" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5429,7 +5576,7 @@
         <v>156</v>
       </c>
       <c r="G181" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5449,13 +5596,13 @@
         <v>157</v>
       </c>
       <c r="E182" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G182" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5478,13 +5625,13 @@
         <v>158</v>
       </c>
       <c r="E183" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G183" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5507,13 +5654,13 @@
         <v>105</v>
       </c>
       <c r="E184" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F184" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G184" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5536,7 +5683,7 @@
         <v>153</v>
       </c>
       <c r="E185" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G185" t="s">
         <v>8</v>
@@ -5562,13 +5709,13 @@
         <v>159</v>
       </c>
       <c r="E186" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G186" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5591,10 +5738,10 @@
         <v>55</v>
       </c>
       <c r="E187" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F187" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5617,10 +5764,10 @@
         <v>160</v>
       </c>
       <c r="E188" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5643,7 +5790,7 @@
         <v>161</v>
       </c>
       <c r="G189" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5663,13 +5810,13 @@
         <v>162</v>
       </c>
       <c r="E190" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F190" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G190" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5692,13 +5839,13 @@
         <v>163</v>
       </c>
       <c r="E191" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F191" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G191" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5721,13 +5868,13 @@
         <v>63</v>
       </c>
       <c r="E192" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F192" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G192" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -5750,7 +5897,7 @@
         <v>164</v>
       </c>
       <c r="E193" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G193" t="s">
         <v>8</v>
@@ -5776,13 +5923,13 @@
         <v>165</v>
       </c>
       <c r="E194" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F194" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G194" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -5805,10 +5952,10 @@
         <v>166</v>
       </c>
       <c r="E195" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F195" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -5831,10 +5978,10 @@
         <v>167</v>
       </c>
       <c r="E196" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F196" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -5857,7 +6004,7 @@
         <v>168</v>
       </c>
       <c r="G197" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -5877,13 +6024,13 @@
         <v>169</v>
       </c>
       <c r="E198" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F198" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G198" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -5906,13 +6053,13 @@
         <v>170</v>
       </c>
       <c r="E199" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F199" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G199" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -5935,13 +6082,13 @@
         <v>171</v>
       </c>
       <c r="E200" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F200" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G200" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -5964,7 +6111,7 @@
         <v>172</v>
       </c>
       <c r="E201" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G201" t="s">
         <v>8</v>
@@ -5990,13 +6137,13 @@
         <v>173</v>
       </c>
       <c r="E202" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F202" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G202" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6019,10 +6166,10 @@
         <v>174</v>
       </c>
       <c r="E203" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F203" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6045,10 +6192,10 @@
         <v>175</v>
       </c>
       <c r="E204" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F204" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6071,7 +6218,7 @@
         <v>176</v>
       </c>
       <c r="G205" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6091,13 +6238,13 @@
         <v>177</v>
       </c>
       <c r="E206" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F206" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G206" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6120,13 +6267,13 @@
         <v>178</v>
       </c>
       <c r="E207" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F207" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G207" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6149,13 +6296,13 @@
         <v>63</v>
       </c>
       <c r="E208" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F208" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G208" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6178,7 +6325,7 @@
         <v>179</v>
       </c>
       <c r="E209" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G209" t="s">
         <v>8</v>
@@ -6204,13 +6351,13 @@
         <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F210" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G210" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6233,10 +6380,10 @@
         <v>180</v>
       </c>
       <c r="E211" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F211" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6259,10 +6406,10 @@
         <v>181</v>
       </c>
       <c r="E212" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F212" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6285,7 +6432,7 @@
         <v>182</v>
       </c>
       <c r="G213" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6305,13 +6452,13 @@
         <v>183</v>
       </c>
       <c r="E214" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F214" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G214" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6334,13 +6481,13 @@
         <v>184</v>
       </c>
       <c r="E215" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F215" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G215" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6360,16 +6507,16 @@
         <v>44602.39444444444</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="E216" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F216" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G216" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6389,10 +6536,10 @@
         <v>44602.39444444444</v>
       </c>
       <c r="D217" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E217" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G217" t="s">
         <v>8</v>
@@ -6415,16 +6562,16 @@
         <v>44602.39444444444</v>
       </c>
       <c r="D218" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E218" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F218" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G218" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6444,13 +6591,13 @@
         <v>44602.39444444444</v>
       </c>
       <c r="D219" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E219" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F219" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6470,13 +6617,13 @@
         <v>44602.39444444444</v>
       </c>
       <c r="D220" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E220" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F220" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6496,10 +6643,10 @@
         <v>44621</v>
       </c>
       <c r="D221" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G221" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6516,16 +6663,16 @@
         <v>44621.46458333333</v>
       </c>
       <c r="D222" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E222" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F222" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G222" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6545,16 +6692,16 @@
         <v>44621.46458333333</v>
       </c>
       <c r="D223" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E223" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F223" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G223" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6574,16 +6721,16 @@
         <v>44621.46458333333</v>
       </c>
       <c r="D224" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="E224" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F224" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G224" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6603,10 +6750,10 @@
         <v>44621.46458333333</v>
       </c>
       <c r="D225" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E225" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G225" t="s">
         <v>8</v>
@@ -6629,16 +6776,16 @@
         <v>44621.46458333333</v>
       </c>
       <c r="D226" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E226" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F226" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G226" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6661,10 +6808,10 @@
         <v>80</v>
       </c>
       <c r="E227" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F227" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6684,13 +6831,13 @@
         <v>44621.46458333333</v>
       </c>
       <c r="D228" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E228" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F228" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6710,10 +6857,10 @@
         <v>44656</v>
       </c>
       <c r="D229" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G229" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6730,16 +6877,16 @@
         <v>44656.42986111111</v>
       </c>
       <c r="D230" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E230" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F230" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G230" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -6759,16 +6906,16 @@
         <v>44656.42986111111</v>
       </c>
       <c r="D231" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E231" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F231" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G231" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -6788,16 +6935,16 @@
         <v>44656.42986111111</v>
       </c>
       <c r="D232" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="E232" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F232" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G232" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -6817,10 +6964,10 @@
         <v>44656.42986111111</v>
       </c>
       <c r="D233" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E233" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G233" t="s">
         <v>8</v>
@@ -6846,13 +6993,13 @@
         <v>41</v>
       </c>
       <c r="E234" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F234" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G234" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -6872,13 +7019,13 @@
         <v>44656.42986111111</v>
       </c>
       <c r="D235" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E235" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F235" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -6898,13 +7045,13 @@
         <v>44656.42986111111</v>
       </c>
       <c r="D236" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E236" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F236" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -6924,10 +7071,10 @@
         <v>44767.00048611111</v>
       </c>
       <c r="D237" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G237" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -6944,16 +7091,16 @@
         <v>44767.42430555556</v>
       </c>
       <c r="D238" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E238" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F238" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G238" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -6976,13 +7123,13 @@
         <v>123</v>
       </c>
       <c r="E239" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F239" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G239" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7002,16 +7149,16 @@
         <v>44767.42430555556</v>
       </c>
       <c r="D240" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E240" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F240" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G240" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7031,10 +7178,10 @@
         <v>44767.42430555556</v>
       </c>
       <c r="D241" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E241" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G241" t="s">
         <v>8</v>
@@ -7057,16 +7204,16 @@
         <v>44767.42430555556</v>
       </c>
       <c r="D242" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E242" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F242" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G242" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7086,13 +7233,13 @@
         <v>44767.42430555556</v>
       </c>
       <c r="D243" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E243" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F243" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7115,10 +7262,10 @@
         <v>139</v>
       </c>
       <c r="E244" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F244" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7138,10 +7285,10 @@
         <v>44774.00048611111</v>
       </c>
       <c r="D245" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G245" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7158,16 +7305,16 @@
         <v>44774.50555555556</v>
       </c>
       <c r="D246" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E246" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F246" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G246" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7190,13 +7337,13 @@
         <v>131</v>
       </c>
       <c r="E247" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F247" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G247" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7216,16 +7363,16 @@
         <v>44774.50555555556</v>
       </c>
       <c r="D248" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E248" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F248" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G248" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7245,10 +7392,10 @@
         <v>44774.50555555556</v>
       </c>
       <c r="D249" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E249" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G249" t="s">
         <v>8</v>
@@ -7271,16 +7418,16 @@
         <v>44774.50555555556</v>
       </c>
       <c r="D250" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E250" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F250" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G250" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7300,13 +7447,13 @@
         <v>44774.50555555556</v>
       </c>
       <c r="D251" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E251" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F251" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7326,13 +7473,13 @@
         <v>44774.50555555556</v>
       </c>
       <c r="D252" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E252" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F252" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7352,10 +7499,10 @@
         <v>44811.00048611111</v>
       </c>
       <c r="D253" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G253" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7372,16 +7519,16 @@
         <v>44811.42013888889</v>
       </c>
       <c r="D254" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E254" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F254" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G254" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7401,16 +7548,16 @@
         <v>44811.42013888889</v>
       </c>
       <c r="D255" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E255" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F255" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G255" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7433,13 +7580,13 @@
         <v>63</v>
       </c>
       <c r="E256" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F256" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G256" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7459,10 +7606,10 @@
         <v>44811.42013888889</v>
       </c>
       <c r="D257" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E257" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G257" t="s">
         <v>8</v>
@@ -7485,16 +7632,16 @@
         <v>44811.42013888889</v>
       </c>
       <c r="D258" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E258" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F258" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G258" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7514,13 +7661,13 @@
         <v>44811.42013888889</v>
       </c>
       <c r="D259" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E259" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F259" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7543,10 +7690,10 @@
         <v>66</v>
       </c>
       <c r="E260" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F260" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7566,10 +7713,10 @@
         <v>44860.00048611111</v>
       </c>
       <c r="D261" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G261" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7586,16 +7733,16 @@
         <v>44860.37430555555</v>
       </c>
       <c r="D262" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E262" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F262" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G262" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7615,16 +7762,16 @@
         <v>44860.37430555555</v>
       </c>
       <c r="D263" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E263" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F263" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G263" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7647,13 +7794,13 @@
         <v>25</v>
       </c>
       <c r="E264" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F264" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G264" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7673,10 +7820,10 @@
         <v>44860.37430555555</v>
       </c>
       <c r="D265" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E265" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G265" t="s">
         <v>8</v>
@@ -7699,16 +7846,16 @@
         <v>44860.37430555555</v>
       </c>
       <c r="D266" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E266" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F266" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G266" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7728,13 +7875,13 @@
         <v>44860.37430555555</v>
       </c>
       <c r="D267" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E267" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F267" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -7754,13 +7901,13 @@
         <v>44860.37430555555</v>
       </c>
       <c r="D268" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E268" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F268" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -7780,10 +7927,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D269" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G269" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -7800,16 +7947,16 @@
         <v>44886.38541666666</v>
       </c>
       <c r="D270" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E270" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F270" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G270" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -7829,16 +7976,16 @@
         <v>44886.38541666666</v>
       </c>
       <c r="D271" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E271" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F271" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G271" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -7861,13 +8008,13 @@
         <v>105</v>
       </c>
       <c r="E272" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F272" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G272" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -7887,10 +8034,10 @@
         <v>44886.38541666666</v>
       </c>
       <c r="D273" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E273" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G273" t="s">
         <v>8</v>
@@ -7913,16 +8060,16 @@
         <v>44886.38541666666</v>
       </c>
       <c r="D274" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E274" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F274" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G274" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -7942,13 +8089,13 @@
         <v>44886.38541666666</v>
       </c>
       <c r="D275" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E275" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F275" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -7968,13 +8115,13 @@
         <v>44886.38541666666</v>
       </c>
       <c r="D276" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E276" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F276" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -7994,10 +8141,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D277" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G277" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8014,16 +8161,16 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D278" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E278" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F278" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G278" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8043,16 +8190,16 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D279" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E279" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F279" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G279" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8072,16 +8219,16 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D280" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E280" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F280" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G280" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8101,10 +8248,10 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D281" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E281" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G281" t="s">
         <v>8</v>
@@ -8127,16 +8274,16 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D282" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E282" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F282" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G282" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8156,13 +8303,13 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D283" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E283" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F283" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8182,13 +8329,13 @@
         <v>44914.37777777778</v>
       </c>
       <c r="D284" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E284" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F284" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8208,10 +8355,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D285" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G285" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8228,16 +8375,16 @@
         <v>44952.36319444444</v>
       </c>
       <c r="D286" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E286" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F286" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G286" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8257,16 +8404,16 @@
         <v>44952.36319444444</v>
       </c>
       <c r="D287" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E287" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F287" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G287" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8289,13 +8436,13 @@
         <v>25</v>
       </c>
       <c r="E288" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F288" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G288" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8315,10 +8462,10 @@
         <v>44952.36319444444</v>
       </c>
       <c r="D289" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E289" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G289" t="s">
         <v>8</v>
@@ -8341,16 +8488,16 @@
         <v>44952.36319444444</v>
       </c>
       <c r="D290" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E290" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F290" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G290" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8370,13 +8517,13 @@
         <v>44952.36319444444</v>
       </c>
       <c r="D291" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E291" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F291" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8396,13 +8543,13 @@
         <v>44952.36319444444</v>
       </c>
       <c r="D292" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E292" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F292" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8422,10 +8569,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D293" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G293" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8445,13 +8592,13 @@
         <v>56</v>
       </c>
       <c r="E294" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F294" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G294" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8471,16 +8618,16 @@
         <v>44978.4125</v>
       </c>
       <c r="D295" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E295" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F295" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G295" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8503,13 +8650,13 @@
         <v>63</v>
       </c>
       <c r="E296" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F296" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G296" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8529,10 +8676,10 @@
         <v>44978.4125</v>
       </c>
       <c r="D297" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E297" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G297" t="s">
         <v>8</v>
@@ -8558,13 +8705,13 @@
         <v>34</v>
       </c>
       <c r="E298" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F298" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G298" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8587,10 +8734,10 @@
         <v>35</v>
       </c>
       <c r="E299" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F299" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8610,13 +8757,13 @@
         <v>44978.4125</v>
       </c>
       <c r="D300" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E300" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F300" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H300">
         <v>500</v>
@@ -8636,10 +8783,10 @@
         <v>45008.00048611111</v>
       </c>
       <c r="D301" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G301" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8656,16 +8803,16 @@
         <v>45008.43472222222</v>
       </c>
       <c r="D302" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E302" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F302" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G302" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8685,16 +8832,16 @@
         <v>45008.43472222222</v>
       </c>
       <c r="D303" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E303" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F303" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G303" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8717,13 +8864,13 @@
         <v>63</v>
       </c>
       <c r="E304" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F304" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G304" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8743,10 +8890,10 @@
         <v>45008.43472222222</v>
       </c>
       <c r="D305" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E305" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G305" t="s">
         <v>8</v>
@@ -8769,16 +8916,16 @@
         <v>45008.43472222222</v>
       </c>
       <c r="D306" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E306" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F306" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G306" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -8798,13 +8945,13 @@
         <v>45008.43472222222</v>
       </c>
       <c r="D307" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E307" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F307" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -8824,13 +8971,13 @@
         <v>45008.43472222222</v>
       </c>
       <c r="D308" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E308" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F308" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -8850,10 +8997,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D309" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G309" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -8870,16 +9017,16 @@
         <v>45027.41319444445</v>
       </c>
       <c r="D310" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E310" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F310" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G310" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -8899,16 +9046,16 @@
         <v>45027.41319444445</v>
       </c>
       <c r="D311" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E311" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F311" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G311" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -8931,13 +9078,13 @@
         <v>63</v>
       </c>
       <c r="E312" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F312" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G312" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -8957,10 +9104,10 @@
         <v>45027.41319444445</v>
       </c>
       <c r="D313" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E313" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G313" t="s">
         <v>8</v>
@@ -8986,13 +9133,13 @@
         <v>124</v>
       </c>
       <c r="E314" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F314" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G314" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9012,13 +9159,13 @@
         <v>45027.41319444445</v>
       </c>
       <c r="D315" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E315" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F315" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9038,13 +9185,13 @@
         <v>45027.41319444445</v>
       </c>
       <c r="D316" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E316" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F316" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9064,10 +9211,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D317" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G317" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9084,16 +9231,16 @@
         <v>45127.48263888889</v>
       </c>
       <c r="D318" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E318" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F318" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G318" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H318">
         <v>500</v>
@@ -9116,13 +9263,13 @@
         <v>123</v>
       </c>
       <c r="E319" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F319" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G319" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9145,13 +9292,13 @@
         <v>77</v>
       </c>
       <c r="E320" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F320" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G320" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9171,10 +9318,10 @@
         <v>45127.48263888889</v>
       </c>
       <c r="D321" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E321" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G321" t="s">
         <v>8</v>
@@ -9197,16 +9344,16 @@
         <v>45127.48263888889</v>
       </c>
       <c r="D322" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E322" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F322" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G322" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H322">
         <v>500</v>
@@ -9226,13 +9373,13 @@
         <v>45127.48263888889</v>
       </c>
       <c r="D323" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E323" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F323" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H323">
         <v>600</v>
@@ -9252,13 +9399,13 @@
         <v>45127.48263888889</v>
       </c>
       <c r="D324" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E324" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F324" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9278,10 +9425,10 @@
         <v>45155.00048611111</v>
       </c>
       <c r="D325" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G325" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9298,16 +9445,16 @@
         <v>45155.42569444444</v>
       </c>
       <c r="D326" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E326" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F326" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G326" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9330,13 +9477,13 @@
         <v>131</v>
       </c>
       <c r="E327" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F327" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G327" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9356,16 +9503,16 @@
         <v>45155.42569444444</v>
       </c>
       <c r="D328" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E328" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F328" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G328" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9385,10 +9532,10 @@
         <v>45155.42569444444</v>
       </c>
       <c r="D329" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E329" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G329" t="s">
         <v>8</v>
@@ -9411,16 +9558,16 @@
         <v>45155.42569444444</v>
       </c>
       <c r="D330" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E330" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F330" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G330" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H330">
         <v>500</v>
@@ -9443,10 +9590,10 @@
         <v>97</v>
       </c>
       <c r="E331" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F331" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H331">
         <v>600</v>
@@ -9466,13 +9613,13 @@
         <v>45155.42569444444</v>
       </c>
       <c r="D332" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E332" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F332" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -9492,10 +9639,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D333" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G333" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H333">
         <v>600</v>
@@ -9512,16 +9659,16 @@
         <v>45197.32152777778</v>
       </c>
       <c r="D334" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E334" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F334" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G334" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H334">
         <v>600</v>
@@ -9544,13 +9691,13 @@
         <v>49</v>
       </c>
       <c r="E335" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F335" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G335" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H335">
         <v>600</v>
@@ -9570,16 +9717,16 @@
         <v>45197.32152777778</v>
       </c>
       <c r="D336" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E336" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F336" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G336" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H336">
         <v>600</v>
@@ -9599,10 +9746,10 @@
         <v>45197.32152777778</v>
       </c>
       <c r="D337" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E337" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G337" t="s">
         <v>8</v>
@@ -9625,16 +9772,16 @@
         <v>45197.32152777778</v>
       </c>
       <c r="D338" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E338" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F338" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G338" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H338">
         <v>600</v>
@@ -9654,13 +9801,13 @@
         <v>45197.32152777778</v>
       </c>
       <c r="D339" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E339" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F339" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H339">
         <v>600</v>
@@ -9683,10 +9830,10 @@
         <v>66</v>
       </c>
       <c r="E340" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F340" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H340">
         <v>500</v>
@@ -9706,10 +9853,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D341" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G341" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H341">
         <v>600</v>
@@ -9726,16 +9873,16 @@
         <v>45210.45902777778</v>
       </c>
       <c r="D342" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E342" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F342" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G342" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H342">
         <v>600</v>
@@ -9758,13 +9905,13 @@
         <v>30</v>
       </c>
       <c r="E343" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F343" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G343" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H343">
         <v>600</v>
@@ -9784,16 +9931,16 @@
         <v>45210.45902777778</v>
       </c>
       <c r="D344" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="E344" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F344" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G344" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H344">
         <v>600</v>
@@ -9813,10 +9960,10 @@
         <v>45210.45902777778</v>
       </c>
       <c r="D345" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E345" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G345" t="s">
         <v>8</v>
@@ -9839,16 +9986,16 @@
         <v>45210.45902777778</v>
       </c>
       <c r="D346" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E346" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F346" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G346" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H346">
         <v>600</v>
@@ -9868,13 +10015,13 @@
         <v>45210.45902777778</v>
       </c>
       <c r="D347" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E347" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F347" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H347">
         <v>600</v>
@@ -9894,13 +10041,13 @@
         <v>45210.45902777778</v>
       </c>
       <c r="D348" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E348" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F348" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H348">
         <v>600</v>
@@ -9920,10 +10067,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D349" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G349" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H349">
         <v>600</v>
@@ -9940,16 +10087,16 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D350" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E350" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F350" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G350" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H350">
         <v>600</v>
@@ -9969,16 +10116,16 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D351" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E351" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F351" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G351" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H351">
         <v>600</v>
@@ -9998,16 +10145,16 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D352" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E352" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F352" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G352" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H352">
         <v>600</v>
@@ -10027,10 +10174,10 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D353" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E353" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G353" t="s">
         <v>8</v>
@@ -10053,16 +10200,16 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D354" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E354" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F354" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G354" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H354">
         <v>600</v>
@@ -10082,13 +10229,13 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D355" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E355" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F355" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H355">
         <v>600</v>
@@ -10108,13 +10255,13 @@
         <v>45253.37291666667</v>
       </c>
       <c r="D356" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E356" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F356" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H356">
         <v>600</v>
@@ -10134,10 +10281,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D357" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G357" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H357">
         <v>600</v>
@@ -10154,16 +10301,16 @@
         <v>45280.42638888889</v>
       </c>
       <c r="D358" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E358" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F358" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G358" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H358">
         <v>600</v>
@@ -10183,16 +10330,16 @@
         <v>45280.42638888889</v>
       </c>
       <c r="D359" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E359" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F359" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G359" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H359">
         <v>600</v>
@@ -10215,13 +10362,13 @@
         <v>63</v>
       </c>
       <c r="E360" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F360" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G360" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H360">
         <v>600</v>
@@ -10241,10 +10388,10 @@
         <v>45280.42638888889</v>
       </c>
       <c r="D361" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E361" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G361" t="s">
         <v>8</v>
@@ -10267,16 +10414,16 @@
         <v>45280.42638888889</v>
       </c>
       <c r="D362" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E362" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F362" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G362" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="H362">
         <v>600</v>
@@ -10299,10 +10446,10 @@
         <v>59</v>
       </c>
       <c r="E363" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F363" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H363">
         <v>600</v>
@@ -10322,19 +10469,1731 @@
         <v>45280.42638888889</v>
       </c>
       <c r="D364" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E364" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F364" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H364">
         <v>600</v>
       </c>
       <c r="I364">
         <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D365" t="s">
+        <v>299</v>
+      </c>
+      <c r="G365" t="s">
+        <v>361</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D366" t="s">
+        <v>258</v>
+      </c>
+      <c r="E366" t="s">
+        <v>344</v>
+      </c>
+      <c r="F366" t="s">
+        <v>354</v>
+      </c>
+      <c r="G366" t="s">
+        <v>357</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D367" t="s">
+        <v>300</v>
+      </c>
+      <c r="E367" t="s">
+        <v>344</v>
+      </c>
+      <c r="F367" t="s">
+        <v>346</v>
+      </c>
+      <c r="G367" t="s">
+        <v>358</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D368" t="s">
+        <v>105</v>
+      </c>
+      <c r="E368" t="s">
+        <v>344</v>
+      </c>
+      <c r="F368" t="s">
+        <v>350</v>
+      </c>
+      <c r="G368" t="s">
+        <v>359</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D369" t="s">
+        <v>301</v>
+      </c>
+      <c r="E369" t="s">
+        <v>344</v>
+      </c>
+      <c r="G369" t="s">
+        <v>8</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>13</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D370" t="s">
+        <v>297</v>
+      </c>
+      <c r="E370" t="s">
+        <v>344</v>
+      </c>
+      <c r="F370" t="s">
+        <v>355</v>
+      </c>
+      <c r="G370" t="s">
+        <v>360</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D371" t="s">
+        <v>302</v>
+      </c>
+      <c r="E371" t="s">
+        <v>344</v>
+      </c>
+      <c r="F371" t="s">
+        <v>352</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45308.40347222222</v>
+      </c>
+      <c r="D372" t="s">
+        <v>303</v>
+      </c>
+      <c r="E372" t="s">
+        <v>344</v>
+      </c>
+      <c r="F372" t="s">
+        <v>353</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>16</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D373" t="s">
+        <v>304</v>
+      </c>
+      <c r="G373" t="s">
+        <v>361</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D374" t="s">
+        <v>305</v>
+      </c>
+      <c r="E374" t="s">
+        <v>344</v>
+      </c>
+      <c r="F374" t="s">
+        <v>354</v>
+      </c>
+      <c r="G374" t="s">
+        <v>357</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>11</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D375" t="s">
+        <v>306</v>
+      </c>
+      <c r="E375" t="s">
+        <v>344</v>
+      </c>
+      <c r="F375" t="s">
+        <v>346</v>
+      </c>
+      <c r="G375" t="s">
+        <v>358</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D376" t="s">
+        <v>105</v>
+      </c>
+      <c r="E376" t="s">
+        <v>344</v>
+      </c>
+      <c r="F376" t="s">
+        <v>350</v>
+      </c>
+      <c r="G376" t="s">
+        <v>359</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D377" t="s">
+        <v>307</v>
+      </c>
+      <c r="E377" t="s">
+        <v>344</v>
+      </c>
+      <c r="G377" t="s">
+        <v>8</v>
+      </c>
+      <c r="H377">
+        <v>500</v>
+      </c>
+      <c r="I377">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D378" t="s">
+        <v>297</v>
+      </c>
+      <c r="E378" t="s">
+        <v>344</v>
+      </c>
+      <c r="F378" t="s">
+        <v>355</v>
+      </c>
+      <c r="G378" t="s">
+        <v>360</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>14</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D379" t="s">
+        <v>308</v>
+      </c>
+      <c r="E379" t="s">
+        <v>344</v>
+      </c>
+      <c r="F379" t="s">
+        <v>352</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>15</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45344.43541666667</v>
+      </c>
+      <c r="D380" t="s">
+        <v>309</v>
+      </c>
+      <c r="E380" t="s">
+        <v>344</v>
+      </c>
+      <c r="F380" t="s">
+        <v>353</v>
+      </c>
+      <c r="H380">
+        <v>500</v>
+      </c>
+      <c r="I380">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>16</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D381" t="s">
+        <v>310</v>
+      </c>
+      <c r="G381" t="s">
+        <v>361</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D382" t="s">
+        <v>195</v>
+      </c>
+      <c r="E382" t="s">
+        <v>344</v>
+      </c>
+      <c r="F382" t="s">
+        <v>354</v>
+      </c>
+      <c r="G382" t="s">
+        <v>357</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D383" t="s">
+        <v>311</v>
+      </c>
+      <c r="E383" t="s">
+        <v>344</v>
+      </c>
+      <c r="F383" t="s">
+        <v>346</v>
+      </c>
+      <c r="G383" t="s">
+        <v>358</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D384" t="s">
+        <v>25</v>
+      </c>
+      <c r="E384" t="s">
+        <v>344</v>
+      </c>
+      <c r="F384" t="s">
+        <v>350</v>
+      </c>
+      <c r="G384" t="s">
+        <v>359</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D385" t="s">
+        <v>312</v>
+      </c>
+      <c r="E385" t="s">
+        <v>344</v>
+      </c>
+      <c r="G385" t="s">
+        <v>8</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+      <c r="I385">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>13</v>
+      </c>
+      <c r="C386" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D386" t="s">
+        <v>297</v>
+      </c>
+      <c r="E386" t="s">
+        <v>344</v>
+      </c>
+      <c r="F386" t="s">
+        <v>355</v>
+      </c>
+      <c r="G386" t="s">
+        <v>360</v>
+      </c>
+      <c r="H386">
+        <v>600</v>
+      </c>
+      <c r="I386">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>14</v>
+      </c>
+      <c r="C387" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D387" t="s">
+        <v>313</v>
+      </c>
+      <c r="E387" t="s">
+        <v>344</v>
+      </c>
+      <c r="F387" t="s">
+        <v>352</v>
+      </c>
+      <c r="H387">
+        <v>600</v>
+      </c>
+      <c r="I387">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>15</v>
+      </c>
+      <c r="C388" s="2">
+        <v>45363.38541666666</v>
+      </c>
+      <c r="D388" t="s">
+        <v>314</v>
+      </c>
+      <c r="E388" t="s">
+        <v>344</v>
+      </c>
+      <c r="F388" t="s">
+        <v>353</v>
+      </c>
+      <c r="H388">
+        <v>500</v>
+      </c>
+      <c r="I388">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>16</v>
+      </c>
+      <c r="C389" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D389" t="s">
+        <v>315</v>
+      </c>
+      <c r="G389" t="s">
+        <v>361</v>
+      </c>
+      <c r="H389">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D390" t="s">
+        <v>316</v>
+      </c>
+      <c r="E390" t="s">
+        <v>344</v>
+      </c>
+      <c r="F390" t="s">
+        <v>354</v>
+      </c>
+      <c r="G390" t="s">
+        <v>357</v>
+      </c>
+      <c r="H390">
+        <v>600</v>
+      </c>
+      <c r="I390">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D391" t="s">
+        <v>317</v>
+      </c>
+      <c r="E391" t="s">
+        <v>344</v>
+      </c>
+      <c r="F391" t="s">
+        <v>346</v>
+      </c>
+      <c r="G391" t="s">
+        <v>358</v>
+      </c>
+      <c r="H391">
+        <v>600</v>
+      </c>
+      <c r="I391">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D392" t="s">
+        <v>318</v>
+      </c>
+      <c r="E392" t="s">
+        <v>344</v>
+      </c>
+      <c r="F392" t="s">
+        <v>350</v>
+      </c>
+      <c r="G392" t="s">
+        <v>359</v>
+      </c>
+      <c r="H392">
+        <v>600</v>
+      </c>
+      <c r="I392">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D393" t="s">
+        <v>269</v>
+      </c>
+      <c r="E393" t="s">
+        <v>344</v>
+      </c>
+      <c r="G393" t="s">
+        <v>8</v>
+      </c>
+      <c r="H393">
+        <v>600</v>
+      </c>
+      <c r="I393">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C394" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D394" t="s">
+        <v>124</v>
+      </c>
+      <c r="E394" t="s">
+        <v>344</v>
+      </c>
+      <c r="F394" t="s">
+        <v>355</v>
+      </c>
+      <c r="G394" t="s">
+        <v>360</v>
+      </c>
+      <c r="H394">
+        <v>600</v>
+      </c>
+      <c r="I394">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>14</v>
+      </c>
+      <c r="C395" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D395" t="s">
+        <v>265</v>
+      </c>
+      <c r="E395" t="s">
+        <v>344</v>
+      </c>
+      <c r="F395" t="s">
+        <v>352</v>
+      </c>
+      <c r="H395">
+        <v>600</v>
+      </c>
+      <c r="I395">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" s="2">
+        <v>45398.42083333333</v>
+      </c>
+      <c r="D396" t="s">
+        <v>319</v>
+      </c>
+      <c r="E396" t="s">
+        <v>344</v>
+      </c>
+      <c r="F396" t="s">
+        <v>353</v>
+      </c>
+      <c r="H396">
+        <v>600</v>
+      </c>
+      <c r="I396">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" t="s">
+        <v>16</v>
+      </c>
+      <c r="C397" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D397" t="s">
+        <v>320</v>
+      </c>
+      <c r="G397" t="s">
+        <v>361</v>
+      </c>
+      <c r="H397">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D398" t="s">
+        <v>321</v>
+      </c>
+      <c r="E398" t="s">
+        <v>344</v>
+      </c>
+      <c r="F398" t="s">
+        <v>356</v>
+      </c>
+      <c r="G398" t="s">
+        <v>357</v>
+      </c>
+      <c r="H398">
+        <v>600</v>
+      </c>
+      <c r="I398">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>9</v>
+      </c>
+      <c r="B399" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D399" t="s">
+        <v>322</v>
+      </c>
+      <c r="E399" t="s">
+        <v>344</v>
+      </c>
+      <c r="F399" t="s">
+        <v>346</v>
+      </c>
+      <c r="G399" t="s">
+        <v>358</v>
+      </c>
+      <c r="H399">
+        <v>600</v>
+      </c>
+      <c r="I399">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D400" t="s">
+        <v>25</v>
+      </c>
+      <c r="E400" t="s">
+        <v>344</v>
+      </c>
+      <c r="F400" t="s">
+        <v>350</v>
+      </c>
+      <c r="G400" t="s">
+        <v>359</v>
+      </c>
+      <c r="H400">
+        <v>600</v>
+      </c>
+      <c r="I400">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D401" t="s">
+        <v>323</v>
+      </c>
+      <c r="E401" t="s">
+        <v>344</v>
+      </c>
+      <c r="G401" t="s">
+        <v>8</v>
+      </c>
+      <c r="H401">
+        <v>600</v>
+      </c>
+      <c r="I401">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>9</v>
+      </c>
+      <c r="B402" t="s">
+        <v>13</v>
+      </c>
+      <c r="C402" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D402" t="s">
+        <v>324</v>
+      </c>
+      <c r="E402" t="s">
+        <v>344</v>
+      </c>
+      <c r="F402" t="s">
+        <v>355</v>
+      </c>
+      <c r="G402" t="s">
+        <v>360</v>
+      </c>
+      <c r="H402">
+        <v>600</v>
+      </c>
+      <c r="I402">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>9</v>
+      </c>
+      <c r="B403" t="s">
+        <v>14</v>
+      </c>
+      <c r="C403" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D403" t="s">
+        <v>325</v>
+      </c>
+      <c r="E403" t="s">
+        <v>344</v>
+      </c>
+      <c r="F403" t="s">
+        <v>352</v>
+      </c>
+      <c r="H403">
+        <v>600</v>
+      </c>
+      <c r="I403">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" t="s">
+        <v>15</v>
+      </c>
+      <c r="C404" s="2">
+        <v>45511.39236111111</v>
+      </c>
+      <c r="D404" t="s">
+        <v>326</v>
+      </c>
+      <c r="E404" t="s">
+        <v>344</v>
+      </c>
+      <c r="F404" t="s">
+        <v>353</v>
+      </c>
+      <c r="H404">
+        <v>600</v>
+      </c>
+      <c r="I404">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" t="s">
+        <v>16</v>
+      </c>
+      <c r="C405" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D405" t="s">
+        <v>327</v>
+      </c>
+      <c r="G405" t="s">
+        <v>361</v>
+      </c>
+      <c r="H405">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D406" t="s">
+        <v>70</v>
+      </c>
+      <c r="E406" t="s">
+        <v>344</v>
+      </c>
+      <c r="F406" t="s">
+        <v>354</v>
+      </c>
+      <c r="G406" t="s">
+        <v>357</v>
+      </c>
+      <c r="H406">
+        <v>600</v>
+      </c>
+      <c r="I406">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>9</v>
+      </c>
+      <c r="B407" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D407" t="s">
+        <v>49</v>
+      </c>
+      <c r="E407" t="s">
+        <v>344</v>
+      </c>
+      <c r="F407" t="s">
+        <v>346</v>
+      </c>
+      <c r="G407" t="s">
+        <v>358</v>
+      </c>
+      <c r="H407">
+        <v>600</v>
+      </c>
+      <c r="I407">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D408" t="s">
+        <v>328</v>
+      </c>
+      <c r="E408" t="s">
+        <v>344</v>
+      </c>
+      <c r="F408" t="s">
+        <v>350</v>
+      </c>
+      <c r="G408" t="s">
+        <v>359</v>
+      </c>
+      <c r="H408">
+        <v>600</v>
+      </c>
+      <c r="I408">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D409" t="s">
+        <v>329</v>
+      </c>
+      <c r="E409" t="s">
+        <v>344</v>
+      </c>
+      <c r="G409" t="s">
+        <v>8</v>
+      </c>
+      <c r="H409">
+        <v>600</v>
+      </c>
+      <c r="I409">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>9</v>
+      </c>
+      <c r="B410" t="s">
+        <v>13</v>
+      </c>
+      <c r="C410" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D410" t="s">
+        <v>330</v>
+      </c>
+      <c r="E410" t="s">
+        <v>344</v>
+      </c>
+      <c r="F410" t="s">
+        <v>355</v>
+      </c>
+      <c r="G410" t="s">
+        <v>360</v>
+      </c>
+      <c r="H410">
+        <v>600</v>
+      </c>
+      <c r="I410">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" t="s">
+        <v>14</v>
+      </c>
+      <c r="C411" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D411" t="s">
+        <v>283</v>
+      </c>
+      <c r="E411" t="s">
+        <v>344</v>
+      </c>
+      <c r="F411" t="s">
+        <v>352</v>
+      </c>
+      <c r="H411">
+        <v>600</v>
+      </c>
+      <c r="I411">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>9</v>
+      </c>
+      <c r="B412" t="s">
+        <v>15</v>
+      </c>
+      <c r="C412" s="2">
+        <v>45558.40902777778</v>
+      </c>
+      <c r="D412" t="s">
+        <v>331</v>
+      </c>
+      <c r="E412" t="s">
+        <v>344</v>
+      </c>
+      <c r="F412" t="s">
+        <v>353</v>
+      </c>
+      <c r="H412">
+        <v>600</v>
+      </c>
+      <c r="I412">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" t="s">
+        <v>16</v>
+      </c>
+      <c r="C413" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D413" t="s">
+        <v>332</v>
+      </c>
+      <c r="G413" t="s">
+        <v>361</v>
+      </c>
+      <c r="H413">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>9</v>
+      </c>
+      <c r="B414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D414" t="s">
+        <v>333</v>
+      </c>
+      <c r="E414" t="s">
+        <v>344</v>
+      </c>
+      <c r="F414" t="s">
+        <v>354</v>
+      </c>
+      <c r="G414" t="s">
+        <v>357</v>
+      </c>
+      <c r="H414">
+        <v>600</v>
+      </c>
+      <c r="I414">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>9</v>
+      </c>
+      <c r="B415" t="s">
+        <v>11</v>
+      </c>
+      <c r="C415" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D415" t="s">
+        <v>334</v>
+      </c>
+      <c r="E415" t="s">
+        <v>344</v>
+      </c>
+      <c r="F415" t="s">
+        <v>346</v>
+      </c>
+      <c r="G415" t="s">
+        <v>358</v>
+      </c>
+      <c r="H415">
+        <v>600</v>
+      </c>
+      <c r="I415">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>9</v>
+      </c>
+      <c r="B416" t="s">
+        <v>12</v>
+      </c>
+      <c r="C416" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D416" t="s">
+        <v>25</v>
+      </c>
+      <c r="E416" t="s">
+        <v>344</v>
+      </c>
+      <c r="F416" t="s">
+        <v>350</v>
+      </c>
+      <c r="G416" t="s">
+        <v>359</v>
+      </c>
+      <c r="H416">
+        <v>600</v>
+      </c>
+      <c r="I416">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>9</v>
+      </c>
+      <c r="B417" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D417" t="s">
+        <v>335</v>
+      </c>
+      <c r="E417" t="s">
+        <v>344</v>
+      </c>
+      <c r="G417" t="s">
+        <v>8</v>
+      </c>
+      <c r="H417">
+        <v>600</v>
+      </c>
+      <c r="I417">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" t="s">
+        <v>13</v>
+      </c>
+      <c r="C418" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D418" t="s">
+        <v>336</v>
+      </c>
+      <c r="E418" t="s">
+        <v>344</v>
+      </c>
+      <c r="F418" t="s">
+        <v>355</v>
+      </c>
+      <c r="G418" t="s">
+        <v>360</v>
+      </c>
+      <c r="H418">
+        <v>600</v>
+      </c>
+      <c r="I418">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>9</v>
+      </c>
+      <c r="B419" t="s">
+        <v>14</v>
+      </c>
+      <c r="C419" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D419" t="s">
+        <v>337</v>
+      </c>
+      <c r="E419" t="s">
+        <v>344</v>
+      </c>
+      <c r="F419" t="s">
+        <v>352</v>
+      </c>
+      <c r="H419">
+        <v>600</v>
+      </c>
+      <c r="I419">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>9</v>
+      </c>
+      <c r="B420" t="s">
+        <v>15</v>
+      </c>
+      <c r="C420" s="2">
+        <v>45587.40902777778</v>
+      </c>
+      <c r="D420" t="s">
+        <v>338</v>
+      </c>
+      <c r="E420" t="s">
+        <v>344</v>
+      </c>
+      <c r="F420" t="s">
+        <v>353</v>
+      </c>
+      <c r="H420">
+        <v>600</v>
+      </c>
+      <c r="I420">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>9</v>
+      </c>
+      <c r="B421" t="s">
+        <v>16</v>
+      </c>
+      <c r="C421" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D421" t="s">
+        <v>339</v>
+      </c>
+      <c r="G421" t="s">
+        <v>361</v>
+      </c>
+      <c r="H421">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>9</v>
+      </c>
+      <c r="B422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D422" t="s">
+        <v>23</v>
+      </c>
+      <c r="E422" t="s">
+        <v>344</v>
+      </c>
+      <c r="F422" t="s">
+        <v>354</v>
+      </c>
+      <c r="G422" t="s">
+        <v>357</v>
+      </c>
+      <c r="H422">
+        <v>600</v>
+      </c>
+      <c r="I422">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>9</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D423" t="s">
+        <v>340</v>
+      </c>
+      <c r="E423" t="s">
+        <v>344</v>
+      </c>
+      <c r="F423" t="s">
+        <v>346</v>
+      </c>
+      <c r="G423" t="s">
+        <v>358</v>
+      </c>
+      <c r="H423">
+        <v>600</v>
+      </c>
+      <c r="I423">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D424" t="s">
+        <v>63</v>
+      </c>
+      <c r="E424" t="s">
+        <v>344</v>
+      </c>
+      <c r="F424" t="s">
+        <v>350</v>
+      </c>
+      <c r="G424" t="s">
+        <v>359</v>
+      </c>
+      <c r="H424">
+        <v>600</v>
+      </c>
+      <c r="I424">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>9</v>
+      </c>
+      <c r="B425" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D425" t="s">
+        <v>341</v>
+      </c>
+      <c r="E425" t="s">
+        <v>344</v>
+      </c>
+      <c r="G425" t="s">
+        <v>8</v>
+      </c>
+      <c r="H425">
+        <v>600</v>
+      </c>
+      <c r="I425">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>9</v>
+      </c>
+      <c r="B426" t="s">
+        <v>13</v>
+      </c>
+      <c r="C426" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D426" t="s">
+        <v>61</v>
+      </c>
+      <c r="E426" t="s">
+        <v>344</v>
+      </c>
+      <c r="F426" t="s">
+        <v>355</v>
+      </c>
+      <c r="G426" t="s">
+        <v>360</v>
+      </c>
+      <c r="H426">
+        <v>600</v>
+      </c>
+      <c r="I426">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>9</v>
+      </c>
+      <c r="B427" t="s">
+        <v>14</v>
+      </c>
+      <c r="C427" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D427" t="s">
+        <v>342</v>
+      </c>
+      <c r="E427" t="s">
+        <v>344</v>
+      </c>
+      <c r="F427" t="s">
+        <v>352</v>
+      </c>
+      <c r="H427">
+        <v>600</v>
+      </c>
+      <c r="I427">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>9</v>
+      </c>
+      <c r="B428" t="s">
+        <v>15</v>
+      </c>
+      <c r="C428" s="2">
+        <v>45636.39652777778</v>
+      </c>
+      <c r="D428" t="s">
+        <v>343</v>
+      </c>
+      <c r="E428" t="s">
+        <v>344</v>
+      </c>
+      <c r="F428" t="s">
+        <v>353</v>
+      </c>
+      <c r="H428">
+        <v>600</v>
+      </c>
+      <c r="I428">
+        <v>8.67</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeHeaton_d2c473879f.xlsx
+++ b/data/Lakes/LakeHeaton_d2c473879f.xlsx
@@ -64,7 +64,7 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.3810</t>
